--- a/documentation/budget/effort_commitment.xlsx
+++ b/documentation/budget/effort_commitment.xlsx
@@ -1167,7 +1167,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="10">
         <f>SUM(E35:L37)</f>
-        <v>328.5</v>
+        <v>283.0625</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1203,7 +1203,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12">
         <f>SUM(E35:H37)</f>
-        <v>111.4</v>
+        <v>65.9625</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>19</v>
@@ -1644,7 +1644,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>12</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD33" si="4">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>20.175</v>
+        <v>10.0875</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE33" si="5">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF33" si="6">SUM(AC24:AE24)</f>
-        <v>116.6625</v>
+        <v>106.575</v>
       </c>
       <c r="AG24" s="1"/>
     </row>
@@ -1737,7 +1737,7 @@
         <v>23</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>12</v>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="4"/>
-        <v>60.525</v>
+        <v>50.4375</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="5"/>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="6"/>
-        <v>171.575</v>
+        <v>161.4875</v>
       </c>
       <c r="AG25" s="1"/>
     </row>
@@ -1830,7 +1830,7 @@
         <v>23</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>16</v>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="4"/>
-        <v>20.175</v>
+        <v>10.0875</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="5"/>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="6"/>
-        <v>116.6625</v>
+        <v>106.575</v>
       </c>
       <c r="AG26" s="1"/>
     </row>
@@ -1923,7 +1923,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>12</v>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="4"/>
-        <v>80.7</v>
+        <v>70.6125</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="5"/>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="6"/>
-        <v>196.6625</v>
+        <v>186.575</v>
       </c>
       <c r="AG27" s="1"/>
     </row>
@@ -2016,7 +2016,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>12</v>
@@ -2082,7 +2082,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="3">
         <f t="shared" si="3"/>
-        <v>45.7875</v>
+        <v>40.7</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="4"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="6"/>
-        <v>176.6625</v>
+        <v>171.575</v>
       </c>
       <c r="AG28" s="1"/>
     </row>
@@ -2108,7 +2108,7 @@
       <c r="E29" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="21" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="7" t="s">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="F35" s="3">
         <f t="shared" si="7"/>
-        <v>5.0875</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="7"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="F36" s="3">
         <f t="shared" si="9"/>
-        <v>40.35</v>
+        <v>0</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="9"/>
@@ -2798,11 +2798,11 @@
       </c>
       <c r="AC36" s="18">
         <f t="shared" ref="AC36:AF36" si="10">SUM(AC24:AC34)</f>
-        <v>351.0375</v>
+        <v>345.95</v>
       </c>
       <c r="AD36" s="18">
         <f t="shared" si="10"/>
-        <v>221.925</v>
+        <v>181.575</v>
       </c>
       <c r="AE36" s="18">
         <f t="shared" si="10"/>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="AF36" s="18">
         <f t="shared" si="10"/>
-        <v>874.7125</v>
+        <v>829.275</v>
       </c>
       <c r="AG36" s="18" t="s">
         <v>4</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="F42" s="3">
         <f t="shared" si="12"/>
-        <v>45.4375</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="12"/>
@@ -3165,7 +3165,7 @@
       <c r="AD42" s="18"/>
       <c r="AE42" s="18">
         <f>SUM(E42:Z42)</f>
-        <v>874.7125</v>
+        <v>829.275</v>
       </c>
       <c r="AF42" s="18"/>
       <c r="AG42" s="18" t="s">
@@ -3184,7 +3184,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3">
         <f>SUM(E42:F42)</f>
-        <v>45.4375</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3">
@@ -3244,7 +3244,7 @@
       <c r="AD43" s="18"/>
       <c r="AE43" s="18">
         <f>SUM(D43:Z43)</f>
-        <v>874.7125</v>
+        <v>829.275</v>
       </c>
       <c r="AF43" s="3"/>
       <c r="AG43" s="18" t="s">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="C47" s="37">
         <f>AE43</f>
-        <v>874.7125</v>
+        <v>829.275</v>
       </c>
       <c r="D47" s="38" t="s">
         <v>45</v>
